--- a/Data Collection/Persons/Kathrin Passig/Kathrin_Passig_all.xlsx
+++ b/Data Collection/Persons/Kathrin Passig/Kathrin_Passig_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\.spyder-py3\Kathrin Passig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Persons\Kathrin Passig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC972C4-132B-4837-990A-8932B139C3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F17B0-FE03-4155-8096-C76B97EF1E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -771,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>32</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>38</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
         <v>44</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>56</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>62</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
         <v>67</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>69</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1081,7 +1081,7 @@
         <v>71</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>83</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
